--- a/s2cDNASample/s2CDNASample_hbrown_05.25.20.xlsx
+++ b/s2cDNASample/s2CDNASample_hbrown_05.25.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE98097A-2A37-FD40-A470-F2878063CF90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78291DF0-9C6D-9E4F-A068-C27CEE0109BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{342F322B-E5C6-9F45-A0D8-2419A7922C20}"/>
+    <workbookView xWindow="15540" yWindow="1980" windowWidth="27640" windowHeight="16940" xr2:uid="{342F322B-E5C6-9F45-A0D8-2419A7922C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,13 @@
     <t>05.25.20</t>
   </si>
   <si>
-    <t>H.Brown</t>
-  </si>
-  <si>
     <t>E7420L</t>
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H27"/>
+      <selection activeCell="E2" sqref="E2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,7 +452,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -461,16 +461,16 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -487,16 +487,16 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -504,7 +504,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -513,16 +513,16 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -539,16 +539,16 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -556,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -565,16 +565,16 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -591,16 +591,16 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -608,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -617,16 +617,16 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -643,16 +643,16 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -669,16 +669,16 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -695,16 +695,16 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -721,16 +721,16 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -747,16 +747,16 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -773,16 +773,16 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -799,16 +799,16 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -825,16 +825,16 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -851,16 +851,16 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -868,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -877,16 +877,16 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -903,16 +903,16 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -929,16 +929,16 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -955,16 +955,16 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -972,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -981,16 +981,16 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1007,16 +1007,16 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1033,16 +1033,16 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1059,16 +1059,16 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1085,16 +1085,16 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1111,16 +1111,16 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27">
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
